--- a/Oyster/Spat/data/development/entry/tile_spat_count_entry.xlsx
+++ b/Oyster/Spat/data/development/entry/tile_spat_count_entry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\oyster\spat\data\development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\oyster\spat\data\development\entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -935,7 +935,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P50"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,8 +1246,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E50">
       <formula1>"JANUARY,FEBRUARY,MARCH,APRIL,MAY,JUNE,JULY,AUGUST,SEPTEMBER,OCTOBER,NOVEMBER,DECEMBER,N_A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F50">
-      <formula1>"2018.2019.2020,2021,2021,2022,2023,2024,2025,2026,2027,2028,2029,-999"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F384">
+      <formula1>"2018, 2019, 2020,2021,2021,2022,2023,2024,2025,2026,2027,2028,2029,-999"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G50">
       <formula1>"TOP,BOTTOM,SIDE,N_A"</formula1>
